--- a/Code/Results/Cases/Case_4_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.499530464513953</v>
+        <v>1.577975264298516</v>
       </c>
       <c r="C2">
-        <v>1.327577755579796</v>
+        <v>0.5789629615297827</v>
       </c>
       <c r="D2">
-        <v>0.5612262365006586</v>
+        <v>0.6619625135298577</v>
       </c>
       <c r="E2">
-        <v>0.251088254446401</v>
+        <v>0.269947015983611</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.68578930197333</v>
+        <v>1.693967459110524</v>
       </c>
       <c r="H2">
-        <v>0.9691155587815103</v>
+        <v>1.445283702310633</v>
       </c>
       <c r="I2">
-        <v>0.7030539957268616</v>
+        <v>1.036825903202889</v>
       </c>
       <c r="J2">
-        <v>0.1491461225528994</v>
+        <v>0.1404587129176207</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.026343924963214</v>
+        <v>1.451791831259811</v>
       </c>
       <c r="C3">
-        <v>1.146093607878186</v>
+        <v>0.532126750922771</v>
       </c>
       <c r="D3">
-        <v>0.5037176668477912</v>
+        <v>0.6523164131316435</v>
       </c>
       <c r="E3">
-        <v>0.2239979592292158</v>
+        <v>0.2651512630226094</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.52595687190248</v>
+        <v>1.671887570354897</v>
       </c>
       <c r="H3">
-        <v>0.905943441447846</v>
+        <v>1.443018937747979</v>
       </c>
       <c r="I3">
-        <v>0.6679513959703058</v>
+        <v>1.039082197960795</v>
       </c>
       <c r="J3">
-        <v>0.1320289548301332</v>
+        <v>0.1372356833393482</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.739175731100204</v>
+        <v>1.374893669175265</v>
       </c>
       <c r="C4">
-        <v>1.036340219477381</v>
+        <v>0.5036195188642409</v>
       </c>
       <c r="D4">
-        <v>0.4695013562248391</v>
+        <v>0.6467644867702234</v>
       </c>
       <c r="E4">
-        <v>0.2078687241138937</v>
+        <v>0.2623649186563526</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.433183324241043</v>
+        <v>1.659727956204222</v>
       </c>
       <c r="H4">
-        <v>0.8699835175398221</v>
+        <v>1.442575290064838</v>
       </c>
       <c r="I4">
-        <v>0.6489435567084811</v>
+        <v>1.041252095947279</v>
       </c>
       <c r="J4">
-        <v>0.1218294641507214</v>
+        <v>0.135344091203315</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.622862083333757</v>
+        <v>1.343702392343687</v>
       </c>
       <c r="C5">
-        <v>0.9919715930931261</v>
+        <v>0.4920650107571305</v>
       </c>
       <c r="D5">
-        <v>0.4558039749958027</v>
+        <v>0.6445949801794484</v>
       </c>
       <c r="E5">
-        <v>0.201408804496765</v>
+        <v>0.2612690969201239</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.396589578116931</v>
+        <v>1.65512157965918</v>
       </c>
       <c r="H5">
-        <v>0.85597706588797</v>
+        <v>1.442631540838931</v>
       </c>
       <c r="I5">
-        <v>0.6417822370838593</v>
+        <v>1.04233248158431</v>
       </c>
       <c r="J5">
-        <v>0.1177421650765211</v>
+        <v>0.1345951007451589</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.603587371264211</v>
+        <v>1.338531877509524</v>
       </c>
       <c r="C6">
-        <v>0.9846239712574345</v>
+        <v>0.490150148117209</v>
       </c>
       <c r="D6">
-        <v>0.4535435953710873</v>
+        <v>0.6442403405959567</v>
       </c>
       <c r="E6">
-        <v>0.2003425738879656</v>
+        <v>0.2610895258357857</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.390582667134311</v>
+        <v>1.654377681533532</v>
       </c>
       <c r="H6">
-        <v>0.85368866162122</v>
+        <v>1.442655166724393</v>
       </c>
       <c r="I6">
-        <v>0.6406268800136559</v>
+        <v>1.0425236915667</v>
       </c>
       <c r="J6">
-        <v>0.1170673967469966</v>
+        <v>0.13447204762209</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737604383700955</v>
+        <v>1.374472424482065</v>
       </c>
       <c r="C7">
-        <v>1.035740485979602</v>
+        <v>0.5034634386867651</v>
       </c>
       <c r="D7">
-        <v>0.4693156688503848</v>
+        <v>0.646734852086297</v>
       </c>
       <c r="E7">
-        <v>0.2077811638418368</v>
+        <v>0.2623499797453803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.432685071577282</v>
+        <v>1.659664424384886</v>
       </c>
       <c r="H7">
-        <v>0.8697920797987706</v>
+        <v>1.442575090352676</v>
       </c>
       <c r="I7">
-        <v>0.6488446796738074</v>
+        <v>1.041265873788589</v>
       </c>
       <c r="J7">
-        <v>0.1217740730129293</v>
+        <v>0.1353339017465274</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.335589055531671</v>
+        <v>1.534346848490316</v>
       </c>
       <c r="C8">
-        <v>1.26461224968125</v>
+        <v>0.5627615202582774</v>
       </c>
       <c r="D8">
-        <v>0.5411517867068198</v>
+        <v>0.6585593895416935</v>
       </c>
       <c r="E8">
-        <v>0.2416340338729484</v>
+        <v>0.2682604917873164</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.629479447966816</v>
+        <v>1.686062643903227</v>
       </c>
       <c r="H8">
-        <v>0.9467066828568989</v>
+        <v>1.444305624935765</v>
       </c>
       <c r="I8">
-        <v>0.6903873144624271</v>
+        <v>1.03744035587885</v>
       </c>
       <c r="J8">
-        <v>0.1431739762138022</v>
+        <v>0.1393292070550345</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.54199050127869</v>
+        <v>1.852484809696762</v>
       </c>
       <c r="C9">
-        <v>1.730077903593894</v>
+        <v>0.6810632656736857</v>
       </c>
       <c r="D9">
-        <v>0.6921800990727149</v>
+        <v>0.6847052369528228</v>
       </c>
       <c r="E9">
-        <v>0.3127285799194937</v>
+        <v>0.2811151042408326</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.064861365662836</v>
+        <v>1.749043190878268</v>
       </c>
       <c r="H9">
-        <v>1.123190533105543</v>
+        <v>1.455263338803121</v>
       </c>
       <c r="I9">
-        <v>0.7948475315862638</v>
+        <v>1.036215965215796</v>
       </c>
       <c r="J9">
-        <v>0.188060652842772</v>
+        <v>0.1478631708348104</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.460095092744439</v>
+        <v>2.089111615419029</v>
       </c>
       <c r="C10">
-        <v>2.0875283092563</v>
+        <v>0.7692642380477537</v>
       </c>
       <c r="D10">
-        <v>0.8116825890663222</v>
+        <v>0.7057429072192178</v>
       </c>
       <c r="E10">
-        <v>0.3689601563126175</v>
+        <v>0.2913431008921208</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.425856580838314</v>
+        <v>1.802331808874783</v>
       </c>
       <c r="H10">
-        <v>1.273598148250755</v>
+        <v>1.467998912750147</v>
       </c>
       <c r="I10">
-        <v>0.8900486372581042</v>
+        <v>1.039217810977355</v>
       </c>
       <c r="J10">
-        <v>0.2235502724558671</v>
+        <v>0.1545685743505345</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.887613075479123</v>
+        <v>2.197405078311249</v>
       </c>
       <c r="C11">
-        <v>2.254915173855636</v>
+        <v>0.8096807635823211</v>
       </c>
       <c r="D11">
-        <v>0.8685239093744315</v>
+        <v>0.7157162314948948</v>
       </c>
       <c r="E11">
-        <v>0.3957084634134773</v>
+        <v>0.2961692310471165</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.60191086892948</v>
+        <v>1.828137542193133</v>
       </c>
       <c r="H11">
-        <v>1.347877864318036</v>
+        <v>1.474826223630856</v>
       </c>
       <c r="I11">
-        <v>0.9385372230646709</v>
+        <v>1.041446874277796</v>
       </c>
       <c r="J11">
-        <v>0.2404347635571042</v>
+        <v>0.1577156921767227</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.051211353777035</v>
+        <v>2.238507566095336</v>
       </c>
       <c r="C12">
-        <v>2.319127338775559</v>
+        <v>0.8250285098749828</v>
       </c>
       <c r="D12">
-        <v>0.8904660629045793</v>
+        <v>0.7195512671297308</v>
       </c>
       <c r="E12">
-        <v>0.4060348868203434</v>
+        <v>0.2980219104572157</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.670566669936022</v>
+        <v>1.838137597800682</v>
       </c>
       <c r="H12">
-        <v>1.376981742531001</v>
+        <v>1.477561501762494</v>
       </c>
       <c r="I12">
-        <v>0.9577595478030503</v>
+        <v>1.042416449198669</v>
       </c>
       <c r="J12">
-        <v>0.2469541203548289</v>
+        <v>0.1589214995828456</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.01589658883114</v>
+        <v>2.229651215571153</v>
       </c>
       <c r="C13">
-        <v>2.305258898083821</v>
+        <v>0.8217211795794128</v>
       </c>
       <c r="D13">
-        <v>0.8857207802712992</v>
+        <v>0.7187227221622834</v>
       </c>
       <c r="E13">
-        <v>0.4038016081912161</v>
+        <v>0.2976217819721754</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.655686971220746</v>
+        <v>1.835973718887942</v>
       </c>
       <c r="H13">
-        <v>1.370667957250163</v>
+        <v>1.476965722550062</v>
       </c>
       <c r="I13">
-        <v>0.9535793580040917</v>
+        <v>1.04220203234928</v>
       </c>
       <c r="J13">
-        <v>0.2455441380565446</v>
+        <v>0.158661179655482</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.901036400003875</v>
+        <v>2.200784715494081</v>
       </c>
       <c r="C14">
-        <v>2.260180511390956</v>
+        <v>0.8109425684018561</v>
       </c>
       <c r="D14">
-        <v>0.8703203507854198</v>
+        <v>0.7160305704844632</v>
       </c>
       <c r="E14">
-        <v>0.3965538828950983</v>
+        <v>0.2963211473234395</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.60751758674121</v>
+        <v>1.828955666259304</v>
       </c>
       <c r="H14">
-        <v>1.350251864355442</v>
+        <v>1.475048244646217</v>
       </c>
       <c r="I14">
-        <v>0.9401006777309391</v>
+        <v>1.041524119525093</v>
       </c>
       <c r="J14">
-        <v>0.2409684779445627</v>
+        <v>0.1578146120204309</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.830912732227034</v>
+        <v>2.183115422504386</v>
       </c>
       <c r="C15">
-        <v>2.232680812585784</v>
+        <v>0.8043459635487125</v>
       </c>
       <c r="D15">
-        <v>0.8609434985922633</v>
+        <v>0.7143891606424972</v>
       </c>
       <c r="E15">
-        <v>0.3921411032783979</v>
+        <v>0.295527749532539</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.578280566759986</v>
+        <v>1.82468668669452</v>
       </c>
       <c r="H15">
-        <v>1.337877800237578</v>
+        <v>1.473893296195939</v>
       </c>
       <c r="I15">
-        <v>0.9319604305678979</v>
+        <v>1.041125258101147</v>
       </c>
       <c r="J15">
-        <v>0.238182726085256</v>
+        <v>0.1572979005077428</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.432377962321027</v>
+        <v>2.082047521214577</v>
       </c>
       <c r="C16">
-        <v>2.076696779646738</v>
+        <v>0.7666288862887995</v>
       </c>
       <c r="D16">
-        <v>0.8080227732220351</v>
+        <v>0.705099272092724</v>
       </c>
       <c r="E16">
-        <v>0.3672380139040996</v>
+        <v>0.2910312073740258</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.414612643660149</v>
+        <v>1.800677081762018</v>
       </c>
       <c r="H16">
-        <v>1.268872620920519</v>
+        <v>1.467573642634363</v>
       </c>
       <c r="I16">
-        <v>0.886993547665206</v>
+        <v>1.039089623787241</v>
       </c>
       <c r="J16">
-        <v>0.2224632932772437</v>
+        <v>0.1543648627438614</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.19060860497558</v>
+        <v>2.020212663722418</v>
       </c>
       <c r="C17">
-        <v>1.982322427073939</v>
+        <v>0.7435663234001026</v>
       </c>
       <c r="D17">
-        <v>0.7762331995028831</v>
+        <v>0.6995037562642779</v>
       </c>
       <c r="E17">
-        <v>0.3522795582442981</v>
+        <v>0.2883172671860379</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.317429231390463</v>
+        <v>1.78635080169721</v>
       </c>
       <c r="H17">
-        <v>1.228129340635576</v>
+        <v>1.463962420948206</v>
       </c>
       <c r="I17">
-        <v>0.8608118065788233</v>
+        <v>1.0380629186185</v>
       </c>
       <c r="J17">
-        <v>0.2130221996203687</v>
+        <v>0.1525904317265656</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.052458515554463</v>
+        <v>1.984708104631693</v>
       </c>
       <c r="C18">
-        <v>1.928481325681673</v>
+        <v>0.7303289265397552</v>
       </c>
       <c r="D18">
-        <v>0.7581778582410834</v>
+        <v>0.6963232898727654</v>
       </c>
       <c r="E18">
-        <v>0.3437838100761965</v>
+        <v>0.2867725861417298</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.26262648276429</v>
+        <v>1.778257777933788</v>
       </c>
       <c r="H18">
-        <v>1.205237242247733</v>
+        <v>1.461982574926736</v>
       </c>
       <c r="I18">
-        <v>0.8462325624212497</v>
+        <v>1.037553583760847</v>
       </c>
       <c r="J18">
-        <v>0.20766028701685</v>
+        <v>0.1515789281183686</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.005831353793269</v>
+        <v>1.972697369734533</v>
       </c>
       <c r="C19">
-        <v>1.910323422693978</v>
+        <v>0.7258516877092802</v>
       </c>
       <c r="D19">
-        <v>0.752102277788623</v>
+        <v>0.695252941151665</v>
       </c>
       <c r="E19">
-        <v>0.3409250130240196</v>
+        <v>0.286252378182823</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.244251188584911</v>
+        <v>1.775542787790926</v>
       </c>
       <c r="H19">
-        <v>1.197575782439543</v>
+        <v>1.461328894830586</v>
       </c>
       <c r="I19">
-        <v>0.8413754400164066</v>
+        <v>1.03739503809576</v>
       </c>
       <c r="J19">
-        <v>0.2058560393184194</v>
+        <v>0.1512380093757884</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.216249314216896</v>
+        <v>2.026788750670448</v>
       </c>
       <c r="C20">
-        <v>1.992322206106962</v>
+        <v>0.74601851334603</v>
       </c>
       <c r="D20">
-        <v>0.7795931212763492</v>
+        <v>0.7000954805475601</v>
       </c>
       <c r="E20">
-        <v>0.3538605390362477</v>
+        <v>0.288604481759144</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.327659352976468</v>
+        <v>1.787860615367464</v>
       </c>
       <c r="H20">
-        <v>1.232409498719989</v>
+        <v>1.464336769325797</v>
       </c>
       <c r="I20">
-        <v>0.863548457207493</v>
+        <v>1.038163799951477</v>
       </c>
       <c r="J20">
-        <v>0.214020016382662</v>
+        <v>0.1527783798695026</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.934724798007835</v>
+        <v>2.209260947836526</v>
       </c>
       <c r="C21">
-        <v>2.273397482239091</v>
+        <v>0.8141073382958552</v>
       </c>
       <c r="D21">
-        <v>0.8748319630720687</v>
+        <v>0.7168197339221081</v>
       </c>
       <c r="E21">
-        <v>0.3986771001337388</v>
+        <v>0.296702491652205</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.621609652479833</v>
+        <v>1.831010826821029</v>
       </c>
       <c r="H21">
-        <v>1.356220917900373</v>
+        <v>1.475607375384527</v>
       </c>
       <c r="I21">
-        <v>0.944035320844975</v>
+        <v>1.041719823080555</v>
       </c>
       <c r="J21">
-        <v>0.2423088847321822</v>
+        <v>0.1580628866582998</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.414403566452052</v>
+        <v>2.329065874931416</v>
       </c>
       <c r="C22">
-        <v>2.461994385678395</v>
+        <v>0.8588576260588638</v>
       </c>
       <c r="D22">
-        <v>0.9395455996665305</v>
+        <v>0.7280903151499274</v>
       </c>
       <c r="E22">
-        <v>0.4291351926005476</v>
+        <v>0.3021415741156517</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.825476516367559</v>
+        <v>1.860542273755641</v>
       </c>
       <c r="H22">
-        <v>1.44290401638392</v>
+        <v>1.483847833632979</v>
       </c>
       <c r="I22">
-        <v>1.001722606644165</v>
+        <v>1.04477588015024</v>
       </c>
       <c r="J22">
-        <v>0.2615403866912658</v>
+        <v>0.1615986510146143</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.157357701482681</v>
+        <v>2.265073324849368</v>
       </c>
       <c r="C23">
-        <v>2.360836668478385</v>
+        <v>0.8349504190829862</v>
       </c>
       <c r="D23">
-        <v>0.90475798635714</v>
+        <v>0.7220437278613758</v>
       </c>
       <c r="E23">
-        <v>0.4127613010515958</v>
+        <v>0.2992251556989274</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.715486953695404</v>
+        <v>1.844658058877314</v>
       </c>
       <c r="H23">
-        <v>1.396062409657816</v>
+        <v>1.479369312032162</v>
       </c>
       <c r="I23">
-        <v>0.9704254832397226</v>
+        <v>1.043077393373693</v>
       </c>
       <c r="J23">
-        <v>0.2512010304513694</v>
+        <v>0.1597039929184803</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.204654534567055</v>
+        <v>2.023815561247375</v>
       </c>
       <c r="C24">
-        <v>1.987800020547638</v>
+        <v>0.7449098111133026</v>
       </c>
       <c r="D24">
-        <v>0.7780734170505355</v>
+        <v>0.6998278484304024</v>
       </c>
       <c r="E24">
-        <v>0.3531454556340918</v>
+        <v>0.2884745834772389</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.323031005424809</v>
+        <v>1.787177582345748</v>
       </c>
       <c r="H24">
-        <v>1.230472792751954</v>
+        <v>1.464167226587222</v>
       </c>
       <c r="I24">
-        <v>0.86230975271814</v>
+        <v>1.038117939515601</v>
       </c>
       <c r="J24">
-        <v>0.2135686995717094</v>
+        <v>0.1526933816118827</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.21094487482776</v>
+        <v>1.765917788527133</v>
       </c>
       <c r="C25">
-        <v>1.601867454031435</v>
+        <v>0.6488379113209817</v>
       </c>
       <c r="D25">
-        <v>0.6500112478279334</v>
+        <v>0.6773128645764075</v>
       </c>
       <c r="E25">
-        <v>0.2928839354320516</v>
+        <v>0.2775009228001579</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.940736600731384</v>
+        <v>1.730786205360545</v>
       </c>
       <c r="H25">
-        <v>1.072213252427503</v>
+        <v>1.451481632007869</v>
       </c>
       <c r="I25">
-        <v>0.763702914013102</v>
+        <v>1.035867486717883</v>
       </c>
       <c r="J25">
-        <v>0.1755352573106492</v>
+        <v>0.1454787079026261</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.577975264298516</v>
+        <v>3.49953046451401</v>
       </c>
       <c r="C2">
-        <v>0.5789629615297827</v>
+        <v>1.327577755579568</v>
       </c>
       <c r="D2">
-        <v>0.6619625135298577</v>
+        <v>0.5612262365004597</v>
       </c>
       <c r="E2">
-        <v>0.269947015983611</v>
+        <v>0.2510882544463229</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.693967459110524</v>
+        <v>1.68578930197333</v>
       </c>
       <c r="H2">
-        <v>1.445283702310633</v>
+        <v>0.969115558781624</v>
       </c>
       <c r="I2">
-        <v>1.036825903202889</v>
+        <v>0.7030539957268545</v>
       </c>
       <c r="J2">
-        <v>0.1404587129176207</v>
+        <v>0.1491461225528212</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.451791831259811</v>
+        <v>3.026343924963214</v>
       </c>
       <c r="C3">
-        <v>0.532126750922771</v>
+        <v>1.146093607878072</v>
       </c>
       <c r="D3">
-        <v>0.6523164131316435</v>
+        <v>0.5037176668478764</v>
       </c>
       <c r="E3">
-        <v>0.2651512630226094</v>
+        <v>0.2239979592292229</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.671887570354897</v>
+        <v>1.525956871902508</v>
       </c>
       <c r="H3">
-        <v>1.443018937747979</v>
+        <v>0.9059434414479597</v>
       </c>
       <c r="I3">
-        <v>1.039082197960795</v>
+        <v>0.6679513959703129</v>
       </c>
       <c r="J3">
-        <v>0.1372356833393482</v>
+        <v>0.132028954830119</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.374893669175265</v>
+        <v>2.739175731100204</v>
       </c>
       <c r="C4">
-        <v>0.5036195188642409</v>
+        <v>1.036340219477097</v>
       </c>
       <c r="D4">
-        <v>0.6467644867702234</v>
+        <v>0.4695013562248391</v>
       </c>
       <c r="E4">
-        <v>0.2623649186563526</v>
+        <v>0.2078687241138439</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.659727956204222</v>
+        <v>1.433183324241099</v>
       </c>
       <c r="H4">
-        <v>1.442575290064838</v>
+        <v>0.8699835175399642</v>
       </c>
       <c r="I4">
-        <v>1.041252095947279</v>
+        <v>0.6489435567085238</v>
       </c>
       <c r="J4">
-        <v>0.135344091203315</v>
+        <v>0.1218294641506503</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.343702392343687</v>
+        <v>2.622862083333644</v>
       </c>
       <c r="C5">
-        <v>0.4920650107571305</v>
+        <v>0.9919715930934103</v>
       </c>
       <c r="D5">
-        <v>0.6445949801794484</v>
+        <v>0.455803974995689</v>
       </c>
       <c r="E5">
-        <v>0.2612690969201239</v>
+        <v>0.201408804496765</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.65512157965918</v>
+        <v>1.396589578116959</v>
       </c>
       <c r="H5">
-        <v>1.442631540838931</v>
+        <v>0.8559770658879415</v>
       </c>
       <c r="I5">
-        <v>1.04233248158431</v>
+        <v>0.641782237083838</v>
       </c>
       <c r="J5">
-        <v>0.1345951007451589</v>
+        <v>0.1177421650764217</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.338531877509524</v>
+        <v>2.603587371264268</v>
       </c>
       <c r="C6">
-        <v>0.490150148117209</v>
+        <v>0.9846239712572924</v>
       </c>
       <c r="D6">
-        <v>0.6442403405959567</v>
+        <v>0.4535435953712295</v>
       </c>
       <c r="E6">
-        <v>0.2610895258357857</v>
+        <v>0.2003425738879727</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.654377681533532</v>
+        <v>1.390582667134339</v>
       </c>
       <c r="H6">
-        <v>1.442655166724393</v>
+        <v>0.85368866162122</v>
       </c>
       <c r="I6">
-        <v>1.0425236915667</v>
+        <v>0.6406268800136488</v>
       </c>
       <c r="J6">
-        <v>0.13447204762209</v>
+        <v>0.1170673967470748</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.374472424482065</v>
+        <v>2.737604383700955</v>
       </c>
       <c r="C7">
-        <v>0.5034634386867651</v>
+        <v>1.035740485979488</v>
       </c>
       <c r="D7">
-        <v>0.646734852086297</v>
+        <v>0.4693156688503564</v>
       </c>
       <c r="E7">
-        <v>0.2623499797453803</v>
+        <v>0.2077811638418154</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.659664424384886</v>
+        <v>1.432685071577311</v>
       </c>
       <c r="H7">
-        <v>1.442575090352676</v>
+        <v>0.8697920797986569</v>
       </c>
       <c r="I7">
-        <v>1.041265873788589</v>
+        <v>0.6488446796738216</v>
       </c>
       <c r="J7">
-        <v>0.1353339017465274</v>
+        <v>0.1217740730128654</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.534346848490316</v>
+        <v>3.3355890555315</v>
       </c>
       <c r="C8">
-        <v>0.5627615202582774</v>
+        <v>1.264612249681193</v>
       </c>
       <c r="D8">
-        <v>0.6585593895416935</v>
+        <v>0.5411517867067346</v>
       </c>
       <c r="E8">
-        <v>0.2682604917873164</v>
+        <v>0.2416340338729555</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.686062643903227</v>
+        <v>1.629479447966844</v>
       </c>
       <c r="H8">
-        <v>1.444305624935765</v>
+        <v>0.9467066828569273</v>
       </c>
       <c r="I8">
-        <v>1.03744035587885</v>
+        <v>0.6903873144624413</v>
       </c>
       <c r="J8">
-        <v>0.1393292070550345</v>
+        <v>0.1431739762137383</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.852484809696762</v>
+        <v>4.541990501278747</v>
       </c>
       <c r="C9">
-        <v>0.6810632656736857</v>
+        <v>1.730077903593724</v>
       </c>
       <c r="D9">
-        <v>0.6847052369528228</v>
+        <v>0.6921800990726013</v>
       </c>
       <c r="E9">
-        <v>0.2811151042408326</v>
+        <v>0.3127285799194865</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.749043190878268</v>
+        <v>2.064861365662807</v>
       </c>
       <c r="H9">
-        <v>1.455263338803121</v>
+        <v>1.123190533105543</v>
       </c>
       <c r="I9">
-        <v>1.036215965215796</v>
+        <v>0.7948475315862567</v>
       </c>
       <c r="J9">
-        <v>0.1478631708348104</v>
+        <v>0.1880606528428004</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.089111615419029</v>
+        <v>5.460095092744325</v>
       </c>
       <c r="C10">
-        <v>0.7692642380477537</v>
+        <v>2.087528309256641</v>
       </c>
       <c r="D10">
-        <v>0.7057429072192178</v>
+        <v>0.8116825890664927</v>
       </c>
       <c r="E10">
-        <v>0.2913431008921208</v>
+        <v>0.3689601563126388</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.802331808874783</v>
+        <v>2.425856580838342</v>
       </c>
       <c r="H10">
-        <v>1.467998912750147</v>
+        <v>1.273598148250755</v>
       </c>
       <c r="I10">
-        <v>1.039217810977355</v>
+        <v>0.8900486372581042</v>
       </c>
       <c r="J10">
-        <v>0.1545685743505345</v>
+        <v>0.2235502724557392</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.197405078311249</v>
+        <v>5.887613075479067</v>
       </c>
       <c r="C11">
-        <v>0.8096807635823211</v>
+        <v>2.254915173855693</v>
       </c>
       <c r="D11">
-        <v>0.7157162314948948</v>
+        <v>0.868523909374801</v>
       </c>
       <c r="E11">
-        <v>0.2961692310471165</v>
+        <v>0.3957084634134844</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.828137542193133</v>
+        <v>2.601910868929536</v>
       </c>
       <c r="H11">
-        <v>1.474826223630856</v>
+        <v>1.347877864318008</v>
       </c>
       <c r="I11">
-        <v>1.041446874277796</v>
+        <v>0.9385372230646709</v>
       </c>
       <c r="J11">
-        <v>0.1577156921767227</v>
+        <v>0.2404347635570758</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.238507566095336</v>
+        <v>6.051211353777092</v>
       </c>
       <c r="C12">
-        <v>0.8250285098749828</v>
+        <v>2.319127338775729</v>
       </c>
       <c r="D12">
-        <v>0.7195512671297308</v>
+        <v>0.8904660629048067</v>
       </c>
       <c r="E12">
-        <v>0.2980219104572157</v>
+        <v>0.4060348868203789</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.838137597800682</v>
+        <v>2.670566669936136</v>
       </c>
       <c r="H12">
-        <v>1.477561501762494</v>
+        <v>1.376981742531143</v>
       </c>
       <c r="I12">
-        <v>1.042416449198669</v>
+        <v>0.9577595478030503</v>
       </c>
       <c r="J12">
-        <v>0.1589214995828456</v>
+        <v>0.2469541203547152</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.229651215571153</v>
+        <v>6.015896588831026</v>
       </c>
       <c r="C13">
-        <v>0.8217211795794128</v>
+        <v>2.305258898083764</v>
       </c>
       <c r="D13">
-        <v>0.7187227221622834</v>
+        <v>0.8857207802713845</v>
       </c>
       <c r="E13">
-        <v>0.2976217819721754</v>
+        <v>0.4038016081911877</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.835973718887942</v>
+        <v>2.655686971220774</v>
       </c>
       <c r="H13">
-        <v>1.476965722550062</v>
+        <v>1.370667957250163</v>
       </c>
       <c r="I13">
-        <v>1.04220203234928</v>
+        <v>0.9535793580040917</v>
       </c>
       <c r="J13">
-        <v>0.158661179655482</v>
+        <v>0.2455441380565162</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.200784715494081</v>
+        <v>5.901036400003875</v>
       </c>
       <c r="C14">
-        <v>0.8109425684018561</v>
+        <v>2.260180511390558</v>
       </c>
       <c r="D14">
-        <v>0.7160305704844632</v>
+        <v>0.8703203507854198</v>
       </c>
       <c r="E14">
-        <v>0.2963211473234395</v>
+        <v>0.3965538828951338</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.828955666259304</v>
+        <v>2.60751758674121</v>
       </c>
       <c r="H14">
-        <v>1.475048244646217</v>
+        <v>1.3502518643553</v>
       </c>
       <c r="I14">
-        <v>1.041524119525093</v>
+        <v>0.9401006777309249</v>
       </c>
       <c r="J14">
-        <v>0.1578146120204309</v>
+        <v>0.2409684779445627</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.183115422504386</v>
+        <v>5.830912732227205</v>
       </c>
       <c r="C15">
-        <v>0.8043459635487125</v>
+        <v>2.23268081258567</v>
       </c>
       <c r="D15">
-        <v>0.7143891606424972</v>
+        <v>0.8609434985919222</v>
       </c>
       <c r="E15">
-        <v>0.295527749532539</v>
+        <v>0.3921411032784334</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.82468668669452</v>
+        <v>2.578280566760014</v>
       </c>
       <c r="H15">
-        <v>1.473893296195939</v>
+        <v>1.337877800237578</v>
       </c>
       <c r="I15">
-        <v>1.041125258101147</v>
+        <v>0.9319604305679263</v>
       </c>
       <c r="J15">
-        <v>0.1572979005077428</v>
+        <v>0.2381827260852987</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.082047521214577</v>
+        <v>5.432377962320913</v>
       </c>
       <c r="C16">
-        <v>0.7666288862887995</v>
+        <v>2.076696779647136</v>
       </c>
       <c r="D16">
-        <v>0.705099272092724</v>
+        <v>0.8080227732222625</v>
       </c>
       <c r="E16">
-        <v>0.2910312073740258</v>
+        <v>0.3672380139040996</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.800677081762018</v>
+        <v>2.414612643660149</v>
       </c>
       <c r="H16">
-        <v>1.467573642634363</v>
+        <v>1.26887262092049</v>
       </c>
       <c r="I16">
-        <v>1.039089623787241</v>
+        <v>0.886993547665206</v>
       </c>
       <c r="J16">
-        <v>0.1543648627438614</v>
+        <v>0.2224632932772437</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.020212663722418</v>
+        <v>5.19060860497558</v>
       </c>
       <c r="C17">
-        <v>0.7435663234001026</v>
+        <v>1.982322427073711</v>
       </c>
       <c r="D17">
-        <v>0.6995037562642779</v>
+        <v>0.7762331995030252</v>
       </c>
       <c r="E17">
-        <v>0.2883172671860379</v>
+        <v>0.3522795582442555</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.78635080169721</v>
+        <v>2.317429231390435</v>
       </c>
       <c r="H17">
-        <v>1.463962420948206</v>
+        <v>1.22812934063532</v>
       </c>
       <c r="I17">
-        <v>1.0380629186185</v>
+        <v>0.8608118065788233</v>
       </c>
       <c r="J17">
-        <v>0.1525904317265656</v>
+        <v>0.2130221996204682</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.984708104631693</v>
+        <v>5.052458515554463</v>
       </c>
       <c r="C18">
-        <v>0.7303289265397552</v>
+        <v>1.928481325681616</v>
       </c>
       <c r="D18">
-        <v>0.6963232898727654</v>
+        <v>0.7581778582412539</v>
       </c>
       <c r="E18">
-        <v>0.2867725861417298</v>
+        <v>0.3437838100761468</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.778257777933788</v>
+        <v>2.26262648276429</v>
       </c>
       <c r="H18">
-        <v>1.461982574926736</v>
+        <v>1.205237242247733</v>
       </c>
       <c r="I18">
-        <v>1.037553583760847</v>
+        <v>0.8462325624212426</v>
       </c>
       <c r="J18">
-        <v>0.1515789281183686</v>
+        <v>0.2076602870168216</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.972697369734533</v>
+        <v>5.005831353793042</v>
       </c>
       <c r="C19">
-        <v>0.7258516877092802</v>
+        <v>1.910323422693864</v>
       </c>
       <c r="D19">
-        <v>0.695252941151665</v>
+        <v>0.7521022777884809</v>
       </c>
       <c r="E19">
-        <v>0.286252378182823</v>
+        <v>0.3409250130239556</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.775542787790926</v>
+        <v>2.24425118858494</v>
       </c>
       <c r="H19">
-        <v>1.461328894830586</v>
+        <v>1.197575782439571</v>
       </c>
       <c r="I19">
-        <v>1.03739503809576</v>
+        <v>0.8413754400164137</v>
       </c>
       <c r="J19">
-        <v>0.1512380093757884</v>
+        <v>0.2058560393184194</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.026788750670448</v>
+        <v>5.216249314217123</v>
       </c>
       <c r="C20">
-        <v>0.74601851334603</v>
+        <v>1.992322206106849</v>
       </c>
       <c r="D20">
-        <v>0.7000954805475601</v>
+        <v>0.7795931212761218</v>
       </c>
       <c r="E20">
-        <v>0.288604481759144</v>
+        <v>0.3538605390363045</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.787860615367464</v>
+        <v>2.327659352976553</v>
       </c>
       <c r="H20">
-        <v>1.464336769325797</v>
+        <v>1.232409498720074</v>
       </c>
       <c r="I20">
-        <v>1.038163799951477</v>
+        <v>0.8635484572074859</v>
       </c>
       <c r="J20">
-        <v>0.1527783798695026</v>
+        <v>0.2140200163826336</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.209260947836526</v>
+        <v>5.934724798007778</v>
       </c>
       <c r="C21">
-        <v>0.8141073382958552</v>
+        <v>2.27339748223892</v>
       </c>
       <c r="D21">
-        <v>0.7168197339221081</v>
+        <v>0.8748319630718413</v>
       </c>
       <c r="E21">
-        <v>0.296702491652205</v>
+        <v>0.3986771001337743</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.831010826821029</v>
+        <v>2.621609652479833</v>
       </c>
       <c r="H21">
-        <v>1.475607375384527</v>
+        <v>1.356220917900259</v>
       </c>
       <c r="I21">
-        <v>1.041719823080555</v>
+        <v>0.9440353208449892</v>
       </c>
       <c r="J21">
-        <v>0.1580628866582998</v>
+        <v>0.2423088847321111</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.329065874931416</v>
+        <v>6.414403566452108</v>
       </c>
       <c r="C22">
-        <v>0.8588576260588638</v>
+        <v>2.461994385678224</v>
       </c>
       <c r="D22">
-        <v>0.7280903151499274</v>
+        <v>0.9395455996664737</v>
       </c>
       <c r="E22">
-        <v>0.3021415741156517</v>
+        <v>0.4291351926006044</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.860542273755641</v>
+        <v>2.825476516367615</v>
       </c>
       <c r="H22">
-        <v>1.483847833632979</v>
+        <v>1.442904016383892</v>
       </c>
       <c r="I22">
-        <v>1.04477588015024</v>
+        <v>1.001722606644194</v>
       </c>
       <c r="J22">
-        <v>0.1615986510146143</v>
+        <v>0.2615403866911947</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.265073324849368</v>
+        <v>6.157357701482567</v>
       </c>
       <c r="C23">
-        <v>0.8349504190829862</v>
+        <v>2.360836668478328</v>
       </c>
       <c r="D23">
-        <v>0.7220437278613758</v>
+        <v>0.9047579863566853</v>
       </c>
       <c r="E23">
-        <v>0.2992251556989274</v>
+        <v>0.4127613010515532</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.844658058877314</v>
+        <v>2.715486953695461</v>
       </c>
       <c r="H23">
-        <v>1.479369312032162</v>
+        <v>1.396062409657787</v>
       </c>
       <c r="I23">
-        <v>1.043077393373693</v>
+        <v>0.9704254832397368</v>
       </c>
       <c r="J23">
-        <v>0.1597039929184803</v>
+        <v>0.2512010304514689</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.023815561247375</v>
+        <v>5.204654534566998</v>
       </c>
       <c r="C24">
-        <v>0.7449098111133026</v>
+        <v>1.987800020546956</v>
       </c>
       <c r="D24">
-        <v>0.6998278484304024</v>
+        <v>0.7780734170506491</v>
       </c>
       <c r="E24">
-        <v>0.2884745834772389</v>
+        <v>0.353145455634106</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.787177582345748</v>
+        <v>2.323031005424866</v>
       </c>
       <c r="H24">
-        <v>1.464167226587222</v>
+        <v>1.230472792751954</v>
       </c>
       <c r="I24">
-        <v>1.038117939515601</v>
+        <v>0.8623097527181471</v>
       </c>
       <c r="J24">
-        <v>0.1526933816118827</v>
+        <v>0.2135686995717663</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.765917788527133</v>
+        <v>4.210944874827874</v>
       </c>
       <c r="C25">
-        <v>0.6488379113209817</v>
+        <v>1.601867454031378</v>
       </c>
       <c r="D25">
-        <v>0.6773128645764075</v>
+        <v>0.6500112478279902</v>
       </c>
       <c r="E25">
-        <v>0.2775009228001579</v>
+        <v>0.2928839354320942</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.730786205360545</v>
+        <v>1.940736600731384</v>
       </c>
       <c r="H25">
-        <v>1.451481632007869</v>
+        <v>1.072213252427531</v>
       </c>
       <c r="I25">
-        <v>1.035867486717883</v>
+        <v>0.7637029140131162</v>
       </c>
       <c r="J25">
-        <v>0.1454787079026261</v>
+        <v>0.1755352573107132</v>
       </c>
       <c r="K25">
         <v>0</v>
